--- a/target/classes/companies/industrial/UnionPacific/UNP_UnionPacific.xlsx
+++ b/target/classes/companies/industrial/UnionPacific/UNP_UnionPacific.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1F3590-E7E3-434C-88AA-A46C3B1A8673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -4665,6 +4665,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="874567888"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -19858,7 +19859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B62" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T129" sqref="T129"/>
     </sheetView>
   </sheetViews>
@@ -19877,7 +19878,7 @@
   <dimension ref="B2:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20117,7 +20118,7 @@
   <dimension ref="B3:L74"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -20168,8 +20169,8 @@
         <v>31</v>
       </c>
       <c r="C7" s="13" t="n">
-        <f>AVERAGE(C28:L28)</f>
-        <v>0.27394087228891106</v>
+        <f>AVERAGEIF(C28:L28, "&lt;0.5")</f>
+        <v>0.24834191919943877</v>
       </c>
     </row>
     <row r="8" spans="2:12">
@@ -20858,86 +20859,86 @@
       </c>
       <c r="C39" s="21" t="n">
         <f>C36*C7</f>
-        <v>6844.943453258435</v>
+        <v>6205.304012469723</v>
       </c>
       <c r="D39" s="21" t="n">
         <f>D36*C7</f>
-        <v>7096.837377927789</v>
+        <v>6433.659205195735</v>
       </c>
       <c r="E39" s="21" t="n">
         <f>E36*C7</f>
-        <v>7351.613843221757</v>
+        <v>6664.627573768439</v>
       </c>
       <c r="F39" s="21" t="n">
         <f>F36*C7</f>
-        <v>7498.646116799786</v>
+        <v>6797.920122264507</v>
       </c>
       <c r="G39" s="21" t="n">
         <f>G36*C7</f>
-        <v>7648.619035783658</v>
+        <v>6933.878521670918</v>
       </c>
       <c r="H39" s="21" t="n">
         <f>H36*C7</f>
-        <v>7801.591413080167</v>
+        <v>7072.556089004684</v>
       </c>
       <c r="I39" s="21" t="n">
         <f>I36*C7</f>
-        <v>7957.62323785422</v>
+        <v>7214.007207623128</v>
       </c>
       <c r="J39" s="21" t="n">
         <f>J36*C7</f>
-        <v>8116.775699053998</v>
+        <v>7358.287348550704</v>
       </c>
       <c r="K39" s="21" t="n">
         <f>K36*C7</f>
-        <v>8279.111209406648</v>
+        <v>7505.453092232354</v>
       </c>
       <c r="L39" s="21" t="n">
         <f>L36*C7</f>
-        <v>8444.693429893769</v>
+        <v>7655.5621507218375</v>
       </c>
     </row>
     <row r="40" spans="2:12">
       <c r="B40" s="18"/>
       <c r="C40" s="20" t="n">
         <f>(C39-L19)/L19</f>
-        <v>-0.021871469954496285</v>
+        <v>-0.1132746481180733</v>
       </c>
       <c r="D40" s="20" t="n">
         <f>(D39-C39)/C39</f>
-        <v>0.03680000081657998</v>
+        <v>0.036800000816579866</v>
       </c>
       <c r="E40" s="20" t="n">
         <f t="shared" ref="E40:L40" si="6">(E39-D39)/D39</f>
-        <v>0.03590000048280102</v>
+        <v>0.035900000482800974</v>
       </c>
       <c r="F40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0.01999999955296806</v>
+        <v>0.019999999552968148</v>
       </c>
       <c r="G40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0.019999999552969463</v>
+        <v>0.01999999955296927</v>
       </c>
       <c r="H40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0.019999999552969733</v>
+        <v>0.019999999552969758</v>
       </c>
       <c r="I40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0.01999999955296936</v>
+        <v>0.019999999552969456</v>
       </c>
       <c r="J40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0.019999999552968734</v>
+        <v>0.01999999955296876</v>
       </c>
       <c r="K40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0.01999999955297151</v>
+        <v>0.019999999552971385</v>
       </c>
       <c r="L40" s="20" t="n">
         <f t="shared" si="6"/>
-        <v>0.019999999552969768</v>
+        <v>0.01999999955296996</v>
       </c>
     </row>
     <row r="41" spans="2:12">
@@ -20959,43 +20960,43 @@
       </c>
       <c r="C42" s="21" t="n">
         <f>C39*C8</f>
-        <v>5503.854635452874</v>
+        <v>4989.535923363653</v>
       </c>
       <c r="D42" s="21" t="n">
         <f>D39*C8</f>
-        <v>5706.396490531883</v>
+        <v>5173.150849417796</v>
       </c>
       <c r="E42" s="21" t="n">
         <f>E39*C8</f>
-        <v>5911.256127297033</v>
+        <v>5358.8669674094945</v>
       </c>
       <c r="F42" s="21" t="n">
         <f>F39*C8</f>
-        <v>6029.481247200454</v>
+        <v>5466.044304362102</v>
       </c>
       <c r="G42" s="21" t="n">
         <f>G39*C8</f>
-        <v>6150.0708694490995</v>
+        <v>5575.365188005853</v>
       </c>
       <c r="H42" s="21" t="n">
         <f>H39*C8</f>
-        <v>6273.072284088815</v>
+        <v>5686.872489273609</v>
       </c>
       <c r="I42" s="21" t="n">
         <f>I39*C8</f>
-        <v>6398.533726966333</v>
+        <v>5800.60993651688</v>
       </c>
       <c r="J42" s="21" t="n">
         <f>J39*C8</f>
-        <v>6526.5043986453165</v>
+        <v>5916.622132654159</v>
       </c>
       <c r="K42" s="21" t="n">
         <f>K39*C8</f>
-        <v>6657.03448370069</v>
+        <v>6034.954572662344</v>
       </c>
       <c r="L42" s="21" t="n">
         <f>L39*C8</f>
-        <v>6790.1751703988075</v>
+        <v>6155.653661417789</v>
       </c>
     </row>
     <row r="43" spans="2:12">
@@ -21004,43 +21005,43 @@
       </c>
       <c r="C43" s="20" t="n">
         <f>(C42-L22)/L22</f>
-        <v>-0.07280076896009535</v>
+        <v>-0.1594447568457458</v>
       </c>
       <c r="D43" s="20" t="n">
         <f>(D42-C42)/C42</f>
-        <v>0.036800000816580865</v>
+        <v>0.03680000081658109</v>
       </c>
       <c r="E43" s="20" t="n">
         <f t="shared" ref="E43:L43" si="7">(E42-D42)/D42</f>
-        <v>0.03590000048280145</v>
+        <v>0.035900000482800336</v>
       </c>
       <c r="F43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0.01999999955296818</v>
+        <v>0.019999999552968415</v>
       </c>
       <c r="G43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0.01999999955296917</v>
+        <v>0.01999999955296923</v>
       </c>
       <c r="H43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0.019999999552969865</v>
+        <v>0.019999999552969012</v>
       </c>
       <c r="I43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0.019999999552968932</v>
+        <v>0.019999999552970247</v>
       </c>
       <c r="J43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0.019999999552968894</v>
+        <v>0.019999999552967943</v>
       </c>
       <c r="K43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0.01999999955297151</v>
+        <v>0.019999999552971586</v>
       </c>
       <c r="L43" s="20" t="n">
         <f t="shared" si="7"/>
-        <v>0.019999999552969747</v>
+        <v>0.01999999955297082</v>
       </c>
     </row>
     <row r="45" spans="2:12">
@@ -21240,43 +21241,43 @@
       </c>
       <c r="C53" s="21" t="n">
         <f t="shared" ref="C53:L53" si="9">C42/C51</f>
-        <v>5019.42624721913</v>
+        <v>4550.375915426683</v>
       </c>
       <c r="D53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>4746.092393158394</v>
+        <v>4302.584290422175</v>
       </c>
       <c r="E53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>4483.7474635851</v>
+        <v>4064.7547078626058</v>
       </c>
       <c r="F53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>4170.887134406287</v>
+        <v>3781.130238317618</v>
       </c>
       <c r="G53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>3879.8571126586808</v>
+        <v>3517.296099433693</v>
       </c>
       <c r="H53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>3609.134155290655</v>
+        <v>3271.8713906548696</v>
       </c>
       <c r="I53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>3357.301305861642</v>
+        <v>3043.571565871128</v>
       </c>
       <c r="J53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>3123.0404782314304</v>
+        <v>2831.2017101397014</v>
       </c>
       <c r="K53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>2905.12555773389</v>
+        <v>2633.650285533454</v>
       </c>
       <c r="L53" s="21" t="n">
         <f t="shared" si="9"/>
-        <v>2702.415983726879</v>
+        <v>2449.883313382221</v>
       </c>
     </row>
     <row r="54" spans="2:12">
@@ -21357,7 +21358,7 @@
       </c>
       <c r="C59" s="25" t="n">
         <f>L53*(1+C5)/(C4-C5)</f>
-        <v>38735.126584343496</v>
+        <v>35115.44515432459</v>
       </c>
     </row>
     <row r="60" spans="2:12" ht="15" thickBot="1">
@@ -21366,7 +21367,7 @@
       </c>
       <c r="C60" s="23" t="n">
         <f>C59/C55</f>
-        <v>14059.287907664759</v>
+        <v>12745.489610198167</v>
       </c>
     </row>
     <row r="61" spans="2:12" ht="15" thickTop="1"/>
@@ -21376,7 +21377,7 @@
       </c>
       <c r="C62" s="71" t="n">
         <f>(SUM(C53:L53)+C59)</f>
-        <v>76732.15441621558</v>
+        <v>69561.76467136873</v>
       </c>
     </row>
     <row r="63" spans="2:12" ht="15" thickTop="1">
@@ -21388,7 +21389,7 @@
       </c>
       <c r="C64" s="70" t="n">
         <f>C62/(C11/1000000)</f>
-        <v>120.47775418546713</v>
+        <v>109.21946931563558</v>
       </c>
       <c r="D64" s="29"/>
       <c r="E64" s="30"/>
@@ -21449,7 +21450,7 @@
       </c>
       <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>122949.4553381638</v>
+        <v>119398.74702333585</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21459,7 +21460,7 @@
       </c>
       <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>193.04389887348282</v>
+        <v>187.4689040516544</v>
       </c>
     </row>
   </sheetData>
@@ -21555,8 +21556,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/target/classes/companies/industrial/UnionPacific/UNP_UnionPacific.xlsx
+++ b/target/classes/companies/industrial/UnionPacific/UNP_UnionPacific.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D2C41D-A74C-45FB-8ED9-E98810C63079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A449CDF3-4847-49B3-B1C1-32D83E004718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Valuation Metrics" sheetId="5" r:id="rId1"/>
@@ -18687,7 +18687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -20117,8 +20117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B3:L74"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="82" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="82" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -21048,45 +21048,42 @@
       <c r="B45" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C45" s="21" t="n">
-        <f>L25*(1+C46)</f>
-        <v>12649.519989125427</v>
-      </c>
-      <c r="D45" s="21" t="n">
-        <f>C45*(1+D46)</f>
-        <v>13155.50077738086</v>
-      </c>
-      <c r="E45" s="21" t="n">
-        <f t="shared" ref="E45:L45" si="8">D45*(1+E46)</f>
-        <v>13681.720796714197</v>
+      <c r="C45" s="60" t="n">
+        <v>12358.0</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>13068.0</v>
+      </c>
+      <c r="E45" s="60" t="n">
+        <v>13644.0</v>
       </c>
       <c r="F45" s="21" t="n">
-        <f t="shared" si="8"/>
-        <v>14228.989616350353</v>
+        <f t="shared" ref="E45:L45" si="8">E45*(1+F46)</f>
+        <v>14189.75998780131</v>
       </c>
       <c r="G45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>14798.149188282703</v>
+        <v>14757.350374626712</v>
       </c>
       <c r="H45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>15390.075142583426</v>
+        <v>15347.644376417664</v>
       </c>
       <c r="I45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>16005.678134526932</v>
+        <v>15961.55013775254</v>
       </c>
       <c r="J45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>16645.90524559778</v>
+        <v>16600.012128991857</v>
       </c>
       <c r="K45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>17311.741440539106</v>
+        <v>17264.012599310005</v>
       </c>
       <c r="L45" s="21" t="n">
         <f t="shared" si="8"/>
-        <v>18004.211082682756</v>
+        <v>17954.573087847166</v>
       </c>
     </row>
     <row r="46" spans="2:12">
@@ -21428,7 +21425,7 @@
       </c>
       <c r="C69" s="25" t="n">
         <f>L45*C9</f>
-        <v>234054.7440748764</v>
+        <v>233409.4501420136</v>
       </c>
     </row>
     <row r="70" spans="2:12" ht="15" thickBot="1">
@@ -21437,7 +21434,7 @@
       </c>
       <c r="C70" s="23" t="n">
         <f>C69/C55</f>
-        <v>84952.4275062917</v>
+        <v>84718.2118476073</v>
       </c>
     </row>
     <row r="71" spans="2:12" ht="15" thickTop="1">
@@ -21450,7 +21447,7 @@
       </c>
       <c r="C72" s="72" t="n">
         <f>SUM(C53:L53)+C70</f>
-        <v>119398.74702333585</v>
+        <v>119164.53136465144</v>
       </c>
     </row>
     <row r="73" spans="2:12" ht="15" thickTop="1"/>
@@ -21460,7 +21457,7 @@
       </c>
       <c r="C74" s="70" t="n">
         <f>C72/(C11/1000000)</f>
-        <v>187.4689040516544</v>
+        <v>187.1011602189923</v>
       </c>
     </row>
   </sheetData>
@@ -21556,7 +21553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
